--- a/data/First_round_results/First Plate 260220 (Rep 2 of 3).xlsx
+++ b/data/First_round_results/First Plate 260220 (Rep 2 of 3).xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\generators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\First_round_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB73A5-71DA-4869-9C9C-5F0F192A2327}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E2F18-D73B-45CE-AD93-1C3855AA626A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{BFBB8FCE-10C2-4D1D-812E-8177E01F1C3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BFBB8FCE-10C2-4D1D-812E-8177E01F1C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ODGFP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F984F-4914-4C3B-98A2-2322FA614F2F}">
   <dimension ref="A1:CS101"/>
   <sheetViews>
-    <sheetView topLeftCell="BP46" workbookViewId="0">
-      <selection activeCell="V70" sqref="V70"/>
+    <sheetView tabSelected="1" topLeftCell="AO30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CC68" sqref="CC68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30028,6 +30028,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B53:CS101">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -30037,8 +30049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7546449-E5B9-47B0-BC61-E9C5925153EB}">
   <dimension ref="A1:CL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
